--- a/Data/EC/NIT-9018364207.xlsx
+++ b/Data/EC/NIT-9018364207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194CCA43-E440-4090-B79D-A6C03AFE125E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4507817A-8022-4BF9-918D-A8C4A854BAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C9794120-FC1A-45B1-A341-93693B6E54D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF40E274-E8C1-4D30-9081-93D708EEF953}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,7 +71,7 @@
     <t>MARIA CAMILA GELVEZ TORRES</t>
   </si>
   <si>
-    <t>2507</t>
+    <t>2508</t>
   </si>
   <si>
     <t>7926065</t>
@@ -80,24 +80,6 @@
     <t>JORGE ENRIQUE PEREZ MEDELLIN</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1050553717</t>
-  </si>
-  <si>
-    <t>BLADIMIR PACHECO AYALA</t>
-  </si>
-  <si>
     <t>7923543</t>
   </si>
   <si>
@@ -122,12 +104,6 @@
     <t>OSCAR EDUARDO VIVAS BARRETO</t>
   </si>
   <si>
-    <t>1038479459</t>
-  </si>
-  <si>
-    <t>JUAN ELISEO HEREDIA VARGAS</t>
-  </si>
-  <si>
     <t>1065874606</t>
   </si>
   <si>
@@ -246,12 +222,6 @@
   </si>
   <si>
     <t>BRAYAN STEVEEN CORREDOR ARGOTA</t>
-  </si>
-  <si>
-    <t>1002279515</t>
-  </si>
-  <si>
-    <t>ALVARO MONTALVO MONSALVE</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -350,7 +320,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +335,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +535,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +579,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +635,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4584BE22-529A-E42A-D2A6-D7F6E522B581}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073AB71A-AB69-7EB9-CFB8-4E94F59DE6B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +986,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AE25FD-FEA0-4DC9-8888-87D1628A2065}">
-  <dimension ref="B2:J62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43670E8C-7028-44EE-8117-0830FE370AA5}">
+  <dimension ref="B2:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1041,7 +1011,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1086,7 +1056,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1118,12 +1088,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2270124</v>
+        <v>1492680</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1104,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1141,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1231,19 +1201,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>43654</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,13 +1224,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>56940</v>
@@ -1277,19 +1247,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1300,19 +1270,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
@@ -1346,19 +1316,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,19 +1339,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1392,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>11</v>
@@ -1415,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>56940</v>
@@ -1438,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
         <v>56940</v>
@@ -1461,19 +1431,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1484,19 +1454,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1507,19 +1477,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>47450</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1530,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>11</v>
@@ -1553,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>11</v>
@@ -1576,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
         <v>56940</v>
@@ -1599,10 +1569,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>11</v>
@@ -1622,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18">
         <v>56940</v>
@@ -1645,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
         <v>56940</v>
@@ -1668,10 +1638,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>11</v>
@@ -1691,10 +1661,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>11</v>
@@ -1714,10 +1684,10 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>11</v>
@@ -1737,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>11</v>
@@ -1756,401 +1726,56 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F45" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
+      <c r="B41" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="18">
-        <v>41756</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
+      <c r="B46" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="H46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="18">
-        <v>15184</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G53" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="22" t="s">
+      <c r="B47" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E56" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G56" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="32"/>
-      <c r="H61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="H62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
+      <c r="C47" s="32"/>
+      <c r="H47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
